--- a/Power BI入门数据源/项目2数据源数据/数据分析/上海_数据集.xlsx
+++ b/Power BI入门数据源/项目2数据源数据/数据分析/上海_数据集.xlsx
@@ -1,17 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88787970-8983-4DFC-96B0-8635FECE3CD8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet sheetId="1" name="sheet1" state="visible" r:id="rId4"/>
+    <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2106" uniqueCount="2106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5656" uniqueCount="2107">
   <si>
     <t>标题</t>
   </si>
@@ -11516,18 +11527,29 @@
 3、责任心强，能高效地和技术及业务团队沟通，能推动业务落地；
 4、有电商行业经验优先。</t>
   </si>
+  <si>
+    <t>公司规模1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts x14ac:knownFonts="1" count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -11554,7 +11576,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -11890,10 +11912,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N435"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="8.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11933,8 +11964,11 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N1" t="s">
+        <v>2106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -11974,8 +12008,12 @@
       <c r="M2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N2" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M2,1))),M2,NULL)</f>
+        <v>500-2000人</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -12015,8 +12053,12 @@
       <c r="M3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N3" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M3,1))),M3,NULL)</f>
+        <v>50-150人</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -12056,8 +12098,12 @@
       <c r="M4" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N4" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M4,1))),M4,NULL)</f>
+        <v>150-500人</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>46</v>
       </c>
@@ -12097,8 +12143,12 @@
       <c r="M5" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N5" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M5,1))),M5,NULL)</f>
+        <v>50-150人</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>55</v>
       </c>
@@ -12138,8 +12188,12 @@
       <c r="M6" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N6" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M6,1))),M6,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -12179,8 +12233,12 @@
       <c r="M7" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N7" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M7,1))),M7,NULL)</f>
+        <v>50-150人</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>72</v>
       </c>
@@ -12220,8 +12278,12 @@
       <c r="M8" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N8" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M8,1))),M8,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>72</v>
       </c>
@@ -12261,8 +12323,12 @@
       <c r="M9" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N9" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M9,1))),M9,NULL)</f>
+        <v>150-500人</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>72</v>
       </c>
@@ -12302,8 +12368,12 @@
       <c r="M10" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N10" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M10,1))),M10,NULL)</f>
+        <v>150-500人</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>98</v>
       </c>
@@ -12343,8 +12413,12 @@
       <c r="M11" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N11" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M11,1))),M11,NULL)</f>
+        <v>15-50人</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>101</v>
       </c>
@@ -12384,8 +12458,12 @@
       <c r="M12" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N12" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M12,1))),M12,NULL)</f>
+        <v>500-2000人</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -12425,8 +12503,12 @@
       <c r="M13" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N13" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M13,1))),M13,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>120</v>
       </c>
@@ -12466,8 +12548,12 @@
       <c r="M14" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N14" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M14,1))),M14,NULL)</f>
+        <v>500-2000人</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>128</v>
       </c>
@@ -12507,8 +12593,12 @@
       <c r="M15" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N15" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M15,1))),M15,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -12548,8 +12638,12 @@
       <c r="M16" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N16" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M16,1))),M16,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>143</v>
       </c>
@@ -12589,8 +12683,12 @@
       <c r="M17" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N17" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M17,1))),M17,NULL)</f>
+        <v>500-2000人</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -12630,8 +12728,12 @@
       <c r="M18" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N18" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M18,1))),M18,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -12671,8 +12773,12 @@
       <c r="M19" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N19" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M19,1))),M19,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -12712,8 +12818,12 @@
       <c r="M20" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N20" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M20,1))),M20,NULL)</f>
+        <v>50-150人</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>101</v>
       </c>
@@ -12753,8 +12863,12 @@
       <c r="M21" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N21" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M21,1))),M21,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -12794,8 +12908,12 @@
       <c r="M22" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N22" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M22,1))),M22,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -12835,8 +12953,12 @@
       <c r="M23" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N23" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M23,1))),M23,NULL)</f>
+        <v>150-500人</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -12876,8 +12998,12 @@
       <c r="M24" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N24" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M24,1))),M24,NULL)</f>
+        <v>15-50人</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -12917,8 +13043,12 @@
       <c r="M25" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N25" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M25,1))),M25,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>204</v>
       </c>
@@ -12958,8 +13088,12 @@
       <c r="M26" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N26" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M26,1))),M26,NULL)</f>
+        <v>500-2000人</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -12999,8 +13133,12 @@
       <c r="M27" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N27" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M27,1))),M27,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -13040,8 +13178,12 @@
       <c r="M28" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N28" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M28,1))),M28,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -13081,8 +13223,12 @@
       <c r="M29" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N29" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M29,1))),M29,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>26</v>
       </c>
@@ -13122,8 +13268,12 @@
       <c r="M30" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N30" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M30,1))),M30,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>101</v>
       </c>
@@ -13163,8 +13313,12 @@
       <c r="M31" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N31" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M31,1))),M31,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>244</v>
       </c>
@@ -13204,8 +13358,12 @@
       <c r="M32" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N32" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M32,1))),M32,NULL)</f>
+        <v>50-150人</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>26</v>
       </c>
@@ -13245,8 +13403,12 @@
       <c r="M33" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N33" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M33,1))),M33,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>253</v>
       </c>
@@ -13286,8 +13448,12 @@
       <c r="M34" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N34" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M34,1))),M34,NULL)</f>
+        <v>150-500人</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>26</v>
       </c>
@@ -13327,8 +13493,12 @@
       <c r="M35" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N35" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M35,1))),M35,NULL)</f>
+        <v>50-150人</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>26</v>
       </c>
@@ -13368,8 +13538,12 @@
       <c r="M36" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N36" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M36,1))),M36,NULL)</f>
+        <v>50-150人</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>269</v>
       </c>
@@ -13409,8 +13583,12 @@
       <c r="M37" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N37" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M37,1))),M37,NULL)</f>
+        <v>500-2000人</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>26</v>
       </c>
@@ -13450,8 +13628,12 @@
       <c r="M38" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N38" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M38,1))),M38,NULL)</f>
+        <v>150-500人</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>101</v>
       </c>
@@ -13491,8 +13673,12 @@
       <c r="M39" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N39" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M39,1))),M39,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>26</v>
       </c>
@@ -13532,8 +13718,12 @@
       <c r="M40" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N40" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M40,1))),M40,NULL)</f>
+        <v>50-150人</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>26</v>
       </c>
@@ -13573,8 +13763,12 @@
       <c r="M41" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N41" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M41,1))),M41,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>26</v>
       </c>
@@ -13614,8 +13808,12 @@
       <c r="M42" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N42" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M42,1))),M42,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>26</v>
       </c>
@@ -13655,8 +13853,12 @@
       <c r="M43" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N43" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M43,1))),M43,NULL)</f>
+        <v>500-2000人</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>26</v>
       </c>
@@ -13696,8 +13898,12 @@
       <c r="M44" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N44" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M44,1))),M44,NULL)</f>
+        <v>50-150人</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>26</v>
       </c>
@@ -13737,8 +13943,12 @@
       <c r="M45" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N45" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M45,1))),M45,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>26</v>
       </c>
@@ -13778,8 +13988,12 @@
       <c r="M46" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N46" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M46,1))),M46,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>26</v>
       </c>
@@ -13819,8 +14033,12 @@
       <c r="M47" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N47" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M47,1))),M47,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>26</v>
       </c>
@@ -13860,8 +14078,12 @@
       <c r="M48" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N48" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M48,1))),M48,NULL)</f>
+        <v>50-150人</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>329</v>
       </c>
@@ -13901,8 +14123,12 @@
       <c r="M49" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N49" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M49,1))),M49,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>26</v>
       </c>
@@ -13942,8 +14168,12 @@
       <c r="M50" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N50" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M50,1))),M50,NULL)</f>
+        <v>150-500人</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>26</v>
       </c>
@@ -13983,8 +14213,12 @@
       <c r="M51" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N51" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M51,1))),M51,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>26</v>
       </c>
@@ -14024,8 +14258,12 @@
       <c r="M52" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N52" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M52,1))),M52,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>101</v>
       </c>
@@ -14065,8 +14303,12 @@
       <c r="M53" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N53" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M53,1))),M53,NULL)</f>
+        <v>50-150人</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>363</v>
       </c>
@@ -14106,8 +14348,12 @@
       <c r="M54" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N54" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M54,1))),M54,NULL)</f>
+        <v>500-2000人</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>26</v>
       </c>
@@ -14147,8 +14393,12 @@
       <c r="M55" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N55" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M55,1))),M55,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>26</v>
       </c>
@@ -14188,8 +14438,12 @@
       <c r="M56" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N56" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M56,1))),M56,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>26</v>
       </c>
@@ -14229,8 +14483,12 @@
       <c r="M57" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N57" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M57,1))),M57,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>244</v>
       </c>
@@ -14270,8 +14528,12 @@
       <c r="M58" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N58" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M58,1))),M58,NULL)</f>
+        <v>150-500人</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>26</v>
       </c>
@@ -14311,8 +14573,12 @@
       <c r="M59" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N59" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M59,1))),M59,NULL)</f>
+        <v>500-2000人</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>26</v>
       </c>
@@ -14352,8 +14618,12 @@
       <c r="M60" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N60" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M60,1))),M60,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>26</v>
       </c>
@@ -14393,8 +14663,12 @@
       <c r="M61" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N61" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M61,1))),M61,NULL)</f>
+        <v>50-150人</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>26</v>
       </c>
@@ -14434,8 +14708,12 @@
       <c r="M62" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N62" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M62,1))),M62,NULL)</f>
+        <v>50-150人</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>408</v>
       </c>
@@ -14475,8 +14753,12 @@
       <c r="M63" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N63" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M63,1))),M63,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>414</v>
       </c>
@@ -14516,8 +14798,12 @@
       <c r="M64" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N64" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M64,1))),M64,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>26</v>
       </c>
@@ -14557,8 +14843,12 @@
       <c r="M65" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N65" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M65,1))),M65,NULL)</f>
+        <v>500-2000人</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>424</v>
       </c>
@@ -14598,8 +14888,12 @@
       <c r="M66" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N66" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M66,1))),M66,NULL)</f>
+        <v>500-2000人</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>429</v>
       </c>
@@ -14639,8 +14933,12 @@
       <c r="M67" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N67" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M67,1))),M67,NULL)</f>
+        <v>150-500人</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>26</v>
       </c>
@@ -14680,8 +14978,12 @@
       <c r="M68" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N68" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M68,1))),M68,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>26</v>
       </c>
@@ -14721,8 +15023,12 @@
       <c r="M69" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N69" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M69,1))),M69,NULL)</f>
+        <v>150-500人</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>445</v>
       </c>
@@ -14762,8 +15068,12 @@
       <c r="M70" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N70" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M70,1))),M70,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>26</v>
       </c>
@@ -14803,8 +15113,12 @@
       <c r="M71" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N71" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M71,1))),M71,NULL)</f>
+        <v>50-150人</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>457</v>
       </c>
@@ -14844,8 +15158,12 @@
       <c r="M72" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N72" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M72,1))),M72,NULL)</f>
+        <v>500-2000人</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>26</v>
       </c>
@@ -14885,8 +15203,12 @@
       <c r="M73" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N73" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M73,1))),M73,NULL)</f>
+        <v>150-500人</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>26</v>
       </c>
@@ -14926,8 +15248,12 @@
       <c r="M74" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N74" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M74,1))),M74,NULL)</f>
+        <v>500-2000人</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>26</v>
       </c>
@@ -14967,8 +15293,12 @@
       <c r="M75" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N75" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M75,1))),M75,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>101</v>
       </c>
@@ -15008,8 +15338,12 @@
       <c r="M76" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N76" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M76,1))),M76,NULL)</f>
+        <v>50-150人</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>482</v>
       </c>
@@ -15049,8 +15383,12 @@
       <c r="M77" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N77" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M77,1))),M77,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>26</v>
       </c>
@@ -15090,8 +15428,12 @@
       <c r="M78" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N78" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M78,1))),M78,NULL)</f>
+        <v>150-500人</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>26</v>
       </c>
@@ -15131,8 +15473,12 @@
       <c r="M79" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N79" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M79,1))),M79,NULL)</f>
+        <v>15-50人</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>26</v>
       </c>
@@ -15172,8 +15518,12 @@
       <c r="M80" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N80" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M80,1))),M80,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>504</v>
       </c>
@@ -15213,8 +15563,12 @@
       <c r="M81" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N81" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M81,1))),M81,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>26</v>
       </c>
@@ -15254,8 +15608,12 @@
       <c r="M82" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N82" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M82,1))),M82,NULL)</f>
+        <v>500-2000人</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>517</v>
       </c>
@@ -15295,8 +15653,12 @@
       <c r="M83" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N83" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M83,1))),M83,NULL)</f>
+        <v>50-150人</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>424</v>
       </c>
@@ -15336,8 +15698,12 @@
       <c r="M84" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N84" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M84,1))),M84,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>527</v>
       </c>
@@ -15377,8 +15743,12 @@
       <c r="M85" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N85" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M85,1))),M85,NULL)</f>
+        <v>15-50人</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>534</v>
       </c>
@@ -15418,8 +15788,12 @@
       <c r="M86" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N86" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M86,1))),M86,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>26</v>
       </c>
@@ -15459,8 +15833,12 @@
       <c r="M87" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N87" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M87,1))),M87,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>26</v>
       </c>
@@ -15500,8 +15878,12 @@
       <c r="M88" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N88" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M88,1))),M88,NULL)</f>
+        <v>150-500人</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>26</v>
       </c>
@@ -15541,8 +15923,12 @@
       <c r="M89" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N89" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M89,1))),M89,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>558</v>
       </c>
@@ -15582,8 +15968,12 @@
       <c r="M90" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N90" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M90,1))),M90,NULL)</f>
+        <v>150-500人</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>26</v>
       </c>
@@ -15623,8 +16013,12 @@
       <c r="M91" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N91" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M91,1))),M91,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>569</v>
       </c>
@@ -15664,8 +16058,12 @@
       <c r="M92" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N92" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M92,1))),M92,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>26</v>
       </c>
@@ -15705,8 +16103,12 @@
       <c r="M93" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N93" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M93,1))),M93,NULL)</f>
+        <v>50-150人</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>26</v>
       </c>
@@ -15746,8 +16148,12 @@
       <c r="M94" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N94" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M94,1))),M94,NULL)</f>
+        <v>50-150人</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>588</v>
       </c>
@@ -15787,8 +16193,12 @@
       <c r="M95" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N95" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M95,1))),M95,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>26</v>
       </c>
@@ -15828,8 +16238,12 @@
       <c r="M96" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N96" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M96,1))),M96,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>424</v>
       </c>
@@ -15869,8 +16283,12 @@
       <c r="M97" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N97" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M97,1))),M97,NULL)</f>
+        <v>50-150人</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>26</v>
       </c>
@@ -15910,8 +16328,12 @@
       <c r="M98" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N98" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M98,1))),M98,NULL)</f>
+        <v>150-500人</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>26</v>
       </c>
@@ -15951,8 +16373,12 @@
       <c r="M99" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N99" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M99,1))),M99,NULL)</f>
+        <v>50-150人</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>26</v>
       </c>
@@ -15992,8 +16418,12 @@
       <c r="M100" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N100" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M100,1))),M100,NULL)</f>
+        <v>150-500人</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>26</v>
       </c>
@@ -16033,8 +16463,12 @@
       <c r="M101" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N101" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M101,1))),M101,NULL)</f>
+        <v>500-2000人</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>621</v>
       </c>
@@ -16074,8 +16508,12 @@
       <c r="M102" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N102" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M102,1))),M102,NULL)</f>
+        <v>50-150人</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>26</v>
       </c>
@@ -16115,8 +16553,12 @@
       <c r="M103" t="s">
         <v>629</v>
       </c>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N103" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M103,1))),M103,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>424</v>
       </c>
@@ -16156,8 +16598,12 @@
       <c r="M104" t="s">
         <v>635</v>
       </c>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N104" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M104,1))),M104,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>636</v>
       </c>
@@ -16197,8 +16643,12 @@
       <c r="M105" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N105" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M105,1))),M105,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>640</v>
       </c>
@@ -16238,8 +16688,12 @@
       <c r="M106" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N106" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M106,1))),M106,NULL)</f>
+        <v>150-500人</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>26</v>
       </c>
@@ -16279,8 +16733,12 @@
       <c r="M107" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N107" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M107,1))),M107,NULL)</f>
+        <v>500-2000人</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>26</v>
       </c>
@@ -16320,8 +16778,12 @@
       <c r="M108" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N108" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M108,1))),M108,NULL)</f>
+        <v>500-2000人</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>101</v>
       </c>
@@ -16361,8 +16823,12 @@
       <c r="M109" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N109" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M109,1))),M109,NULL)</f>
+        <v>500-2000人</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>26</v>
       </c>
@@ -16402,8 +16868,12 @@
       <c r="M110" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N110" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M110,1))),M110,NULL)</f>
+        <v>500-2000人</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>26</v>
       </c>
@@ -16443,8 +16913,12 @@
       <c r="M111" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N111" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M111,1))),M111,NULL)</f>
+        <v>150-500人</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>588</v>
       </c>
@@ -16484,8 +16958,12 @@
       <c r="M112" t="s">
         <v>677</v>
       </c>
-    </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N112" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M112,1))),M112,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>678</v>
       </c>
@@ -16525,8 +17003,12 @@
       <c r="M113" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N113" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M113,1))),M113,NULL)</f>
+        <v>500-2000人</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>682</v>
       </c>
@@ -16566,8 +17048,12 @@
       <c r="M114" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N114" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M114,1))),M114,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>26</v>
       </c>
@@ -16607,8 +17093,12 @@
       <c r="M115" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N115" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M115,1))),M115,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>690</v>
       </c>
@@ -16648,8 +17138,12 @@
       <c r="M116" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N116" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M116,1))),M116,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>26</v>
       </c>
@@ -16689,8 +17183,12 @@
       <c r="M117" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N117" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M117,1))),M117,NULL)</f>
+        <v>150-500人</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>26</v>
       </c>
@@ -16730,8 +17228,12 @@
       <c r="M118" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N118" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M118,1))),M118,NULL)</f>
+        <v>150-500人</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>101</v>
       </c>
@@ -16771,8 +17273,12 @@
       <c r="M119" t="s">
         <v>711</v>
       </c>
-    </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N119" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M119,1))),M119,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>712</v>
       </c>
@@ -16812,8 +17318,12 @@
       <c r="M120" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N120" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M120,1))),M120,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>588</v>
       </c>
@@ -16853,8 +17363,12 @@
       <c r="M121" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N121" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M121,1))),M121,NULL)</f>
+        <v>500-2000人</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>723</v>
       </c>
@@ -16894,8 +17408,12 @@
       <c r="M122" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N122" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M122,1))),M122,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>588</v>
       </c>
@@ -16935,8 +17453,12 @@
       <c r="M123" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N123" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M123,1))),M123,NULL)</f>
+        <v>15-50人</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>733</v>
       </c>
@@ -16976,8 +17498,12 @@
       <c r="M124" t="s">
         <v>738</v>
       </c>
-    </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N124" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M124,1))),M124,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>26</v>
       </c>
@@ -17017,8 +17543,12 @@
       <c r="M125" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N125" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M125,1))),M125,NULL)</f>
+        <v>50-150人</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>26</v>
       </c>
@@ -17058,8 +17588,12 @@
       <c r="M126" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N126" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M126,1))),M126,NULL)</f>
+        <v>50-150人</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>748</v>
       </c>
@@ -17099,8 +17633,12 @@
       <c r="M127" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N127" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M127,1))),M127,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>754</v>
       </c>
@@ -17140,8 +17678,12 @@
       <c r="M128" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N128" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M128,1))),M128,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>758</v>
       </c>
@@ -17181,8 +17723,12 @@
       <c r="M129" t="s">
         <v>711</v>
       </c>
-    </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N129" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M129,1))),M129,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>101</v>
       </c>
@@ -17222,8 +17768,12 @@
       <c r="M130" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N130" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M130,1))),M130,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>26</v>
       </c>
@@ -17263,8 +17813,12 @@
       <c r="M131" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N131" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M131,1))),M131,NULL)</f>
+        <v>50-150人</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>424</v>
       </c>
@@ -17304,8 +17858,12 @@
       <c r="M132" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N132" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M132,1))),M132,NULL)</f>
+        <v>150-500人</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>26</v>
       </c>
@@ -17345,8 +17903,12 @@
       <c r="M133" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N133" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M133,1))),M133,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>26</v>
       </c>
@@ -17386,8 +17948,12 @@
       <c r="M134" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N134" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M134,1))),M134,NULL)</f>
+        <v>150-500人</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>26</v>
       </c>
@@ -17427,8 +17993,12 @@
       <c r="M135" t="s">
         <v>711</v>
       </c>
-    </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N135" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M135,1))),M135,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>101</v>
       </c>
@@ -17468,8 +18038,12 @@
       <c r="M136" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N136" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M136,1))),M136,NULL)</f>
+        <v>500-2000人</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>26</v>
       </c>
@@ -17509,8 +18083,12 @@
       <c r="M137" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N137" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M137,1))),M137,NULL)</f>
+        <v>500-2000人</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>26</v>
       </c>
@@ -17550,8 +18128,12 @@
       <c r="M138" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N138" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M138,1))),M138,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>797</v>
       </c>
@@ -17591,8 +18173,12 @@
       <c r="M139" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N139" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M139,1))),M139,NULL)</f>
+        <v>500-2000人</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>101</v>
       </c>
@@ -17632,8 +18218,12 @@
       <c r="M140" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N140" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M140,1))),M140,NULL)</f>
+        <v>15-50人</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>807</v>
       </c>
@@ -17673,8 +18263,12 @@
       <c r="M141" t="s">
         <v>814</v>
       </c>
-    </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N141" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M141,1))),M141,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>26</v>
       </c>
@@ -17714,8 +18308,12 @@
       <c r="M142" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N142" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M142,1))),M142,NULL)</f>
+        <v>50-150人</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>101</v>
       </c>
@@ -17755,8 +18353,12 @@
       <c r="M143" t="s">
         <v>825</v>
       </c>
-    </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N143" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M143,1))),M143,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>826</v>
       </c>
@@ -17796,8 +18398,12 @@
       <c r="M144" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N144" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M144,1))),M144,NULL)</f>
+        <v>50-150人</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>101</v>
       </c>
@@ -17837,8 +18443,12 @@
       <c r="M145" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N145" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M145,1))),M145,NULL)</f>
+        <v>500-2000人</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>26</v>
       </c>
@@ -17878,8 +18488,12 @@
       <c r="M146" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N146" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M146,1))),M146,NULL)</f>
+        <v>150-500人</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>842</v>
       </c>
@@ -17919,8 +18533,12 @@
       <c r="M147" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N147" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M147,1))),M147,NULL)</f>
+        <v>50-150人</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>26</v>
       </c>
@@ -17960,8 +18578,12 @@
       <c r="M148" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N148" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M148,1))),M148,NULL)</f>
+        <v>15-50人</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>850</v>
       </c>
@@ -18001,8 +18623,12 @@
       <c r="M149" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N149" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M149,1))),M149,NULL)</f>
+        <v>50-150人</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>26</v>
       </c>
@@ -18042,8 +18668,12 @@
       <c r="M150" t="s">
         <v>711</v>
       </c>
-    </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N150" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M150,1))),M150,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>26</v>
       </c>
@@ -18083,8 +18713,12 @@
       <c r="M151" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N151" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M151,1))),M151,NULL)</f>
+        <v>15-50人</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>424</v>
       </c>
@@ -18124,8 +18758,12 @@
       <c r="M152" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N152" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M152,1))),M152,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>26</v>
       </c>
@@ -18165,8 +18803,12 @@
       <c r="M153" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N153" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M153,1))),M153,NULL)</f>
+        <v>50-150人</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>26</v>
       </c>
@@ -18206,8 +18848,12 @@
       <c r="M154" t="s">
         <v>875</v>
       </c>
-    </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N154" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M154,1))),M154,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>876</v>
       </c>
@@ -18247,8 +18893,12 @@
       <c r="M155" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N155" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M155,1))),M155,NULL)</f>
+        <v>500-2000人</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>882</v>
       </c>
@@ -18288,8 +18938,12 @@
       <c r="M156" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N156" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M156,1))),M156,NULL)</f>
+        <v>500-2000人</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>886</v>
       </c>
@@ -18329,8 +18983,12 @@
       <c r="M157" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N157" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M157,1))),M157,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>26</v>
       </c>
@@ -18370,8 +19028,12 @@
       <c r="M158" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N158" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M158,1))),M158,NULL)</f>
+        <v>50-150人</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>26</v>
       </c>
@@ -18411,8 +19073,12 @@
       <c r="M159" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N159" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M159,1))),M159,NULL)</f>
+        <v>500-2000人</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>424</v>
       </c>
@@ -18452,8 +19118,12 @@
       <c r="M160" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N160" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M160,1))),M160,NULL)</f>
+        <v>150-500人</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>588</v>
       </c>
@@ -18493,8 +19163,12 @@
       <c r="M161" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N161" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M161,1))),M161,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>907</v>
       </c>
@@ -18534,8 +19208,12 @@
       <c r="M162" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N162" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M162,1))),M162,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>424</v>
       </c>
@@ -18575,8 +19253,12 @@
       <c r="M163" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N163" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M163,1))),M163,NULL)</f>
+        <v>150-500人</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>915</v>
       </c>
@@ -18616,8 +19298,12 @@
       <c r="M164" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N164" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M164,1))),M164,NULL)</f>
+        <v>50-150人</v>
+      </c>
+    </row>
+    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>26</v>
       </c>
@@ -18657,8 +19343,12 @@
       <c r="M165" t="s">
         <v>875</v>
       </c>
-    </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N165" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M165,1))),M165,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>26</v>
       </c>
@@ -18698,8 +19388,12 @@
       <c r="M166" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N166" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M166,1))),M166,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>925</v>
       </c>
@@ -18739,8 +19433,12 @@
       <c r="M167" t="s">
         <v>930</v>
       </c>
-    </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N167" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M167,1))),M167,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>797</v>
       </c>
@@ -18780,8 +19478,12 @@
       <c r="M168" t="s">
         <v>935</v>
       </c>
-    </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N168" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M168,1))),M168,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>26</v>
       </c>
@@ -18821,8 +19523,12 @@
       <c r="M169" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N169" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M169,1))),M169,NULL)</f>
+        <v>500-2000人</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>26</v>
       </c>
@@ -18862,8 +19568,12 @@
       <c r="M170" t="s">
         <v>825</v>
       </c>
-    </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N170" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M170,1))),M170,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="171" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>942</v>
       </c>
@@ -18903,8 +19613,12 @@
       <c r="M171" t="s">
         <v>948</v>
       </c>
-    </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N171" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M171,1))),M171,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="172" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>26</v>
       </c>
@@ -18944,8 +19658,12 @@
       <c r="M172" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N172" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M172,1))),M172,NULL)</f>
+        <v>500-2000人</v>
+      </c>
+    </row>
+    <row r="173" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>588</v>
       </c>
@@ -18985,8 +19703,12 @@
       <c r="M173" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N173" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M173,1))),M173,NULL)</f>
+        <v>150-500人</v>
+      </c>
+    </row>
+    <row r="174" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>959</v>
       </c>
@@ -19026,8 +19748,12 @@
       <c r="M174" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N174" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M174,1))),M174,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="175" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>72</v>
       </c>
@@ -19067,8 +19793,12 @@
       <c r="M175" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N175" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M175,1))),M175,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="176" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>959</v>
       </c>
@@ -19108,8 +19838,12 @@
       <c r="M176" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N176" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M176,1))),M176,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="177" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>925</v>
       </c>
@@ -19149,8 +19883,12 @@
       <c r="M177" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N177" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M177,1))),M177,NULL)</f>
+        <v>50-150人</v>
+      </c>
+    </row>
+    <row r="178" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>26</v>
       </c>
@@ -19190,8 +19928,12 @@
       <c r="M178" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N178" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M178,1))),M178,NULL)</f>
+        <v>50-150人</v>
+      </c>
+    </row>
+    <row r="179" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>26</v>
       </c>
@@ -19231,8 +19973,12 @@
       <c r="M179" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N179" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M179,1))),M179,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="180" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>588</v>
       </c>
@@ -19272,8 +20018,12 @@
       <c r="M180" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N180" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M180,1))),M180,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="181" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>982</v>
       </c>
@@ -19313,8 +20063,12 @@
       <c r="M181" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N181" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M181,1))),M181,NULL)</f>
+        <v>500-2000人</v>
+      </c>
+    </row>
+    <row r="182" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>26</v>
       </c>
@@ -19354,8 +20108,12 @@
       <c r="M182" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N182" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M182,1))),M182,NULL)</f>
+        <v>500-2000人</v>
+      </c>
+    </row>
+    <row r="183" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>989</v>
       </c>
@@ -19395,8 +20153,12 @@
       <c r="M183" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N183" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M183,1))),M183,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="184" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>993</v>
       </c>
@@ -19436,8 +20198,12 @@
       <c r="M184" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N184" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M184,1))),M184,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="185" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>959</v>
       </c>
@@ -19477,8 +20243,12 @@
       <c r="M185" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N185" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M185,1))),M185,NULL)</f>
+        <v>150-500人</v>
+      </c>
+    </row>
+    <row r="186" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>1004</v>
       </c>
@@ -19518,8 +20288,12 @@
       <c r="M186" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N186" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M186,1))),M186,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="187" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>588</v>
       </c>
@@ -19559,8 +20333,12 @@
       <c r="M187" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N187" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M187,1))),M187,NULL)</f>
+        <v>500-2000人</v>
+      </c>
+    </row>
+    <row r="188" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>797</v>
       </c>
@@ -19600,8 +20378,12 @@
       <c r="M188" t="s">
         <v>935</v>
       </c>
-    </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N188" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M188,1))),M188,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="189" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>1014</v>
       </c>
@@ -19641,8 +20423,12 @@
       <c r="M189" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N189" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M189,1))),M189,NULL)</f>
+        <v>50-150人</v>
+      </c>
+    </row>
+    <row r="190" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>925</v>
       </c>
@@ -19682,8 +20468,12 @@
       <c r="M190" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N190" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M190,1))),M190,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="191" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>1024</v>
       </c>
@@ -19723,8 +20513,12 @@
       <c r="M191" t="s">
         <v>1029</v>
       </c>
-    </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N191" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M191,1))),M191,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="192" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>925</v>
       </c>
@@ -19764,8 +20558,12 @@
       <c r="M192" t="s">
         <v>1036</v>
       </c>
-    </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N192" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M192,1))),M192,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="193" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>925</v>
       </c>
@@ -19805,8 +20603,12 @@
       <c r="M193" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N193" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M193,1))),M193,NULL)</f>
+        <v>500-2000人</v>
+      </c>
+    </row>
+    <row r="194" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>72</v>
       </c>
@@ -19846,8 +20648,12 @@
       <c r="M194" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N194" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M194,1))),M194,NULL)</f>
+        <v>50-150人</v>
+      </c>
+    </row>
+    <row r="195" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>925</v>
       </c>
@@ -19887,8 +20693,12 @@
       <c r="M195" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N195" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M195,1))),M195,NULL)</f>
+        <v>500-2000人</v>
+      </c>
+    </row>
+    <row r="196" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>1045</v>
       </c>
@@ -19928,8 +20738,12 @@
       <c r="M196" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N196" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M196,1))),M196,NULL)</f>
+        <v>150-500人</v>
+      </c>
+    </row>
+    <row r="197" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>1052</v>
       </c>
@@ -19969,8 +20783,12 @@
       <c r="M197" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N197" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M197,1))),M197,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="198" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>588</v>
       </c>
@@ -20010,8 +20828,12 @@
       <c r="M198" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N198" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M198,1))),M198,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="199" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>1059</v>
       </c>
@@ -20051,8 +20873,12 @@
       <c r="M199" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N199" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M199,1))),M199,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="200" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>26</v>
       </c>
@@ -20092,8 +20918,12 @@
       <c r="M200" t="s">
         <v>1068</v>
       </c>
-    </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N200" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M200,1))),M200,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="201" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>1069</v>
       </c>
@@ -20133,8 +20963,12 @@
       <c r="M201" t="s">
         <v>814</v>
       </c>
-    </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N201" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M201,1))),M201,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="202" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>1073</v>
       </c>
@@ -20174,8 +21008,12 @@
       <c r="M202" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N202" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M202,1))),M202,NULL)</f>
+        <v>150-500人</v>
+      </c>
+    </row>
+    <row r="203" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>1080</v>
       </c>
@@ -20215,8 +21053,12 @@
       <c r="M203" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N203" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M203,1))),M203,NULL)</f>
+        <v>500-2000人</v>
+      </c>
+    </row>
+    <row r="204" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>1086</v>
       </c>
@@ -20256,8 +21098,12 @@
       <c r="M204" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N204" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M204,1))),M204,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="205" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>1090</v>
       </c>
@@ -20297,8 +21143,12 @@
       <c r="M205" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N205" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M205,1))),M205,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="206" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>925</v>
       </c>
@@ -20338,8 +21188,12 @@
       <c r="M206" t="s">
         <v>1098</v>
       </c>
-    </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N206" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M206,1))),M206,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="207" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>1099</v>
       </c>
@@ -20379,8 +21233,12 @@
       <c r="M207" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N207" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M207,1))),M207,NULL)</f>
+        <v>500-2000人</v>
+      </c>
+    </row>
+    <row r="208" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>797</v>
       </c>
@@ -20420,8 +21278,12 @@
       <c r="M208" t="s">
         <v>935</v>
       </c>
-    </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N208" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M208,1))),M208,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="209" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>588</v>
       </c>
@@ -20461,8 +21323,12 @@
       <c r="M209" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N209" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M209,1))),M209,NULL)</f>
+        <v>50-150人</v>
+      </c>
+    </row>
+    <row r="210" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>55</v>
       </c>
@@ -20502,8 +21368,12 @@
       <c r="M210" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N210" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M210,1))),M210,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="211" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>1115</v>
       </c>
@@ -20543,8 +21413,12 @@
       <c r="M211" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N211" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M211,1))),M211,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="212" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>1120</v>
       </c>
@@ -20584,8 +21458,12 @@
       <c r="M212" t="s">
         <v>814</v>
       </c>
-    </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N212" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M212,1))),M212,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="213" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>1124</v>
       </c>
@@ -20625,8 +21503,12 @@
       <c r="M213" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N213" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M213,1))),M213,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="214" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>1099</v>
       </c>
@@ -20666,8 +21548,12 @@
       <c r="M214" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N214" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M214,1))),M214,NULL)</f>
+        <v>500-2000人</v>
+      </c>
+    </row>
+    <row r="215" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>1129</v>
       </c>
@@ -20707,8 +21593,12 @@
       <c r="M215" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N215" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M215,1))),M215,NULL)</f>
+        <v>15-50人</v>
+      </c>
+    </row>
+    <row r="216" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>925</v>
       </c>
@@ -20748,8 +21638,12 @@
       <c r="M216" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N216" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M216,1))),M216,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="217" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>1138</v>
       </c>
@@ -20789,8 +21683,12 @@
       <c r="M217" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N217" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M217,1))),M217,NULL)</f>
+        <v>150-500人</v>
+      </c>
+    </row>
+    <row r="218" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>1144</v>
       </c>
@@ -20830,8 +21728,12 @@
       <c r="M218" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N218" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M218,1))),M218,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="219" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>1150</v>
       </c>
@@ -20871,8 +21773,12 @@
       <c r="M219" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N219" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M219,1))),M219,NULL)</f>
+        <v>500-2000人</v>
+      </c>
+    </row>
+    <row r="220" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>959</v>
       </c>
@@ -20912,8 +21818,12 @@
       <c r="M220" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N220" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M220,1))),M220,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="221" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>1159</v>
       </c>
@@ -20953,8 +21863,12 @@
       <c r="M221" t="s">
         <v>935</v>
       </c>
-    </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N221" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M221,1))),M221,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="222" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>1164</v>
       </c>
@@ -20994,8 +21908,12 @@
       <c r="M222" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N222" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M222,1))),M222,NULL)</f>
+        <v>150-500人</v>
+      </c>
+    </row>
+    <row r="223" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>55</v>
       </c>
@@ -21035,8 +21953,12 @@
       <c r="M223" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N223" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M223,1))),M223,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="224" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>925</v>
       </c>
@@ -21076,8 +21998,12 @@
       <c r="M224" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N224" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M224,1))),M224,NULL)</f>
+        <v>500-2000人</v>
+      </c>
+    </row>
+    <row r="225" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>925</v>
       </c>
@@ -21117,8 +22043,12 @@
       <c r="M225" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N225" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M225,1))),M225,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="226" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>989</v>
       </c>
@@ -21158,8 +22088,12 @@
       <c r="M226" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N226" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M226,1))),M226,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="227" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>925</v>
       </c>
@@ -21199,8 +22133,12 @@
       <c r="M227" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N227" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M227,1))),M227,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="228" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>925</v>
       </c>
@@ -21240,8 +22178,12 @@
       <c r="M228" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N228" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M228,1))),M228,NULL)</f>
+        <v>150-500人</v>
+      </c>
+    </row>
+    <row r="229" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>1186</v>
       </c>
@@ -21281,8 +22223,12 @@
       <c r="M229" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N229" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M229,1))),M229,NULL)</f>
+        <v>500-2000人</v>
+      </c>
+    </row>
+    <row r="230" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>588</v>
       </c>
@@ -21322,8 +22268,12 @@
       <c r="M230" t="s">
         <v>1197</v>
       </c>
-    </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N230" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M230,1))),M230,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="231" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>925</v>
       </c>
@@ -21363,8 +22313,12 @@
       <c r="M231" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N231" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M231,1))),M231,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="232" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>1201</v>
       </c>
@@ -21404,8 +22358,12 @@
       <c r="M232" t="s">
         <v>1208</v>
       </c>
-    </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N232" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M232,1))),M232,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="233" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>1209</v>
       </c>
@@ -21445,8 +22403,12 @@
       <c r="M233" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N233" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M233,1))),M233,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="234" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>959</v>
       </c>
@@ -21486,8 +22448,12 @@
       <c r="M234" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N234" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M234,1))),M234,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="235" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>925</v>
       </c>
@@ -21527,8 +22493,12 @@
       <c r="M235" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N235" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M235,1))),M235,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="236" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>925</v>
       </c>
@@ -21568,8 +22538,12 @@
       <c r="M236" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N236" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M236,1))),M236,NULL)</f>
+        <v>50-150人</v>
+      </c>
+    </row>
+    <row r="237" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>1228</v>
       </c>
@@ -21609,8 +22583,12 @@
       <c r="M237" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N237" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M237,1))),M237,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="238" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>1230</v>
       </c>
@@ -21650,8 +22628,12 @@
       <c r="M238" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N238" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M238,1))),M238,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="239" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>588</v>
       </c>
@@ -21691,8 +22673,12 @@
       <c r="M239" t="s">
         <v>1240</v>
       </c>
-    </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N239" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M239,1))),M239,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="240" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>925</v>
       </c>
@@ -21732,8 +22718,12 @@
       <c r="M240" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N240" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M240,1))),M240,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="241" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>925</v>
       </c>
@@ -21773,8 +22763,12 @@
       <c r="M241" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N241" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M241,1))),M241,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="242" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>925</v>
       </c>
@@ -21814,8 +22808,12 @@
       <c r="M242" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N242" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M242,1))),M242,NULL)</f>
+        <v>500-2000人</v>
+      </c>
+    </row>
+    <row r="243" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>55</v>
       </c>
@@ -21855,8 +22853,12 @@
       <c r="M243" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N243" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M243,1))),M243,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="244" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>26</v>
       </c>
@@ -21896,8 +22898,12 @@
       <c r="M244" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N244" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M244,1))),M244,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="245" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>1254</v>
       </c>
@@ -21937,8 +22943,12 @@
       <c r="M245" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N245" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M245,1))),M245,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="246" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>1259</v>
       </c>
@@ -21978,8 +22988,12 @@
       <c r="M246" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N246" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M246,1))),M246,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="247" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>1266</v>
       </c>
@@ -22019,8 +23033,12 @@
       <c r="M247" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N247" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M247,1))),M247,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="248" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>1271</v>
       </c>
@@ -22060,8 +23078,12 @@
       <c r="M248" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N248" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M248,1))),M248,NULL)</f>
+        <v>500-2000人</v>
+      </c>
+    </row>
+    <row r="249" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>925</v>
       </c>
@@ -22101,8 +23123,12 @@
       <c r="M249" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N249" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M249,1))),M249,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="250" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>26</v>
       </c>
@@ -22142,8 +23168,12 @@
       <c r="M250" t="s">
         <v>1285</v>
       </c>
-    </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N250" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M250,1))),M250,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="251" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>1286</v>
       </c>
@@ -22183,8 +23213,12 @@
       <c r="M251" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N251" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M251,1))),M251,NULL)</f>
+        <v>150-500人</v>
+      </c>
+    </row>
+    <row r="252" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>1292</v>
       </c>
@@ -22224,8 +23258,12 @@
       <c r="M252" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N252" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M252,1))),M252,NULL)</f>
+        <v>15-50人</v>
+      </c>
+    </row>
+    <row r="253" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>1298</v>
       </c>
@@ -22265,8 +23303,12 @@
       <c r="M253" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N253" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M253,1))),M253,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="254" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>26</v>
       </c>
@@ -22306,8 +23348,12 @@
       <c r="M254" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N254" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M254,1))),M254,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="255" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>925</v>
       </c>
@@ -22347,8 +23393,12 @@
       <c r="M255" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N255" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M255,1))),M255,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="256" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>1298</v>
       </c>
@@ -22388,8 +23438,12 @@
       <c r="M256" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N256" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M256,1))),M256,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="257" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>26</v>
       </c>
@@ -22429,8 +23483,12 @@
       <c r="M257" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N257" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M257,1))),M257,NULL)</f>
+        <v>150-500人</v>
+      </c>
+    </row>
+    <row r="258" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>26</v>
       </c>
@@ -22470,8 +23528,12 @@
       <c r="M258" t="s">
         <v>1325</v>
       </c>
-    </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N258" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M258,1))),M258,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="259" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>101</v>
       </c>
@@ -22511,8 +23573,12 @@
       <c r="M259" t="s">
         <v>1331</v>
       </c>
-    </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N259" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M259,1))),M259,NULL)</f>
+        <v>2017-03-02 Pre-A轮 ￥1500万 投资方未透露(A轮)，2016-06-01 天使轮 ￥2000万 厚乾集团(天使轮)</v>
+      </c>
+    </row>
+    <row r="260" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>1332</v>
       </c>
@@ -22552,8 +23618,12 @@
       <c r="M260" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N260" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M260,1))),M260,NULL)</f>
+        <v>500-2000人</v>
+      </c>
+    </row>
+    <row r="261" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>26</v>
       </c>
@@ -22593,8 +23663,12 @@
       <c r="M261" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N261" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M261,1))),M261,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="262" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>101</v>
       </c>
@@ -22634,8 +23708,12 @@
       <c r="M262" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N262" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M262,1))),M262,NULL)</f>
+        <v>15-50人</v>
+      </c>
+    </row>
+    <row r="263" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>1342</v>
       </c>
@@ -22675,8 +23753,12 @@
       <c r="M263" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N263" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M263,1))),M263,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="264" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>26</v>
       </c>
@@ -22716,8 +23798,12 @@
       <c r="M264" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N264" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M264,1))),M264,NULL)</f>
+        <v>50-150人</v>
+      </c>
+    </row>
+    <row r="265" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>26</v>
       </c>
@@ -22757,8 +23843,12 @@
       <c r="M265" t="s">
         <v>1068</v>
       </c>
-    </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N265" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M265,1))),M265,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="266" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>26</v>
       </c>
@@ -22798,8 +23888,12 @@
       <c r="M266" t="s">
         <v>1357</v>
       </c>
-    </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N266" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M266,1))),M266,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="267" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>1342</v>
       </c>
@@ -22839,8 +23933,12 @@
       <c r="M267" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N267" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M267,1))),M267,NULL)</f>
+        <v>150-500人</v>
+      </c>
+    </row>
+    <row r="268" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>534</v>
       </c>
@@ -22880,8 +23978,12 @@
       <c r="M268" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N268" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M268,1))),M268,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="269" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>26</v>
       </c>
@@ -22921,8 +24023,12 @@
       <c r="M269" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N269" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M269,1))),M269,NULL)</f>
+        <v>150-500人</v>
+      </c>
+    </row>
+    <row r="270" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>925</v>
       </c>
@@ -22962,8 +24068,12 @@
       <c r="M270" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N270" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M270,1))),M270,NULL)</f>
+        <v>50-150人</v>
+      </c>
+    </row>
+    <row r="271" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>26</v>
       </c>
@@ -23003,8 +24113,12 @@
       <c r="M271" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N271" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M271,1))),M271,NULL)</f>
+        <v>15-50人</v>
+      </c>
+    </row>
+    <row r="272" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>1045</v>
       </c>
@@ -23044,8 +24158,12 @@
       <c r="M272" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N272" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M272,1))),M272,NULL)</f>
+        <v>150-500人</v>
+      </c>
+    </row>
+    <row r="273" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>26</v>
       </c>
@@ -23085,8 +24203,12 @@
       <c r="M273" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N273" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M273,1))),M273,NULL)</f>
+        <v>150-500人</v>
+      </c>
+    </row>
+    <row r="274" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>1342</v>
       </c>
@@ -23126,8 +24248,12 @@
       <c r="M274" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N274" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M274,1))),M274,NULL)</f>
+        <v>50-150人</v>
+      </c>
+    </row>
+    <row r="275" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>1393</v>
       </c>
@@ -23167,8 +24293,12 @@
       <c r="M275" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N275" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M275,1))),M275,NULL)</f>
+        <v>50-150人</v>
+      </c>
+    </row>
+    <row r="276" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>1399</v>
       </c>
@@ -23208,8 +24338,12 @@
       <c r="M276" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N276" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M276,1))),M276,NULL)</f>
+        <v>500-2000人</v>
+      </c>
+    </row>
+    <row r="277" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>424</v>
       </c>
@@ -23249,8 +24383,12 @@
       <c r="M277" t="s">
         <v>1068</v>
       </c>
-    </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N277" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M277,1))),M277,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="278" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>26</v>
       </c>
@@ -23290,8 +24428,12 @@
       <c r="M278" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="279" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N278" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M278,1))),M278,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="279" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>26</v>
       </c>
@@ -23331,8 +24473,12 @@
       <c r="M279" t="s">
         <v>1418</v>
       </c>
-    </row>
-    <row r="280" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N279" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M279,1))),M279,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="280" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>101</v>
       </c>
@@ -23372,8 +24518,12 @@
       <c r="M280" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N280" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M280,1))),M280,NULL)</f>
+        <v>150-500人</v>
+      </c>
+    </row>
+    <row r="281" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>424</v>
       </c>
@@ -23413,8 +24563,12 @@
       <c r="M281" t="s">
         <v>1428</v>
       </c>
-    </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N281" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M281,1))),M281,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="282" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>959</v>
       </c>
@@ -23454,8 +24608,12 @@
       <c r="M282" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="283" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N282" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M282,1))),M282,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="283" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>26</v>
       </c>
@@ -23495,8 +24653,12 @@
       <c r="M283" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="284" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N283" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M283,1))),M283,NULL)</f>
+        <v>15-50人</v>
+      </c>
+    </row>
+    <row r="284" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>1437</v>
       </c>
@@ -23536,8 +24698,12 @@
       <c r="M284" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="285" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N284" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M284,1))),M284,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="285" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>925</v>
       </c>
@@ -23577,8 +24743,12 @@
       <c r="M285" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N285" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M285,1))),M285,NULL)</f>
+        <v>50-150人</v>
+      </c>
+    </row>
+    <row r="286" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>424</v>
       </c>
@@ -23618,8 +24788,12 @@
       <c r="M286" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="287" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N286" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M286,1))),M286,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="287" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>1448</v>
       </c>
@@ -23659,8 +24833,12 @@
       <c r="M287" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N287" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M287,1))),M287,NULL)</f>
+        <v>500-2000人</v>
+      </c>
+    </row>
+    <row r="288" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>26</v>
       </c>
@@ -23700,8 +24878,12 @@
       <c r="M288" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="289" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N288" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M288,1))),M288,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="289" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>101</v>
       </c>
@@ -23741,8 +24923,12 @@
       <c r="M289" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="290" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N289" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M289,1))),M289,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="290" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>26</v>
       </c>
@@ -23782,8 +24968,12 @@
       <c r="M290" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="291" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N290" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M290,1))),M290,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="291" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>1468</v>
       </c>
@@ -23823,8 +25013,12 @@
       <c r="M291" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="292" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N291" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M291,1))),M291,NULL)</f>
+        <v>50-150人</v>
+      </c>
+    </row>
+    <row r="292" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>1474</v>
       </c>
@@ -23864,8 +25058,12 @@
       <c r="M292" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="293" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N292" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M292,1))),M292,NULL)</f>
+        <v>500-2000人</v>
+      </c>
+    </row>
+    <row r="293" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>1479</v>
       </c>
@@ -23905,8 +25103,12 @@
       <c r="M293" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="294" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N293" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M293,1))),M293,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="294" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>959</v>
       </c>
@@ -23946,8 +25148,12 @@
       <c r="M294" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="295" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N294" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M294,1))),M294,NULL)</f>
+        <v>500-2000人</v>
+      </c>
+    </row>
+    <row r="295" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>1490</v>
       </c>
@@ -23987,8 +25193,12 @@
       <c r="M295" t="s">
         <v>1496</v>
       </c>
-    </row>
-    <row r="296" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N295" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M295,1))),M295,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="296" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>26</v>
       </c>
@@ -24028,8 +25238,12 @@
       <c r="M296" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="297" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N296" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M296,1))),M296,NULL)</f>
+        <v>500-2000人</v>
+      </c>
+    </row>
+    <row r="297" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>26</v>
       </c>
@@ -24069,8 +25283,12 @@
       <c r="M297" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="298" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N297" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M297,1))),M297,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="298" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>1508</v>
       </c>
@@ -24110,8 +25328,12 @@
       <c r="M298" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="299" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N298" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M298,1))),M298,NULL)</f>
+        <v>50-150人</v>
+      </c>
+    </row>
+    <row r="299" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>1513</v>
       </c>
@@ -24151,8 +25373,12 @@
       <c r="M299" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="300" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N299" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M299,1))),M299,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="300" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>1516</v>
       </c>
@@ -24192,8 +25418,12 @@
       <c r="M300" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="301" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N300" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M300,1))),M300,NULL)</f>
+        <v>50-150人</v>
+      </c>
+    </row>
+    <row r="301" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>1520</v>
       </c>
@@ -24233,8 +25463,12 @@
       <c r="M301" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="302" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N301" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M301,1))),M301,NULL)</f>
+        <v>500-2000人</v>
+      </c>
+    </row>
+    <row r="302" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>1525</v>
       </c>
@@ -24274,8 +25508,12 @@
       <c r="M302" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="303" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N302" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M302,1))),M302,NULL)</f>
+        <v>150-500人</v>
+      </c>
+    </row>
+    <row r="303" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>26</v>
       </c>
@@ -24315,8 +25553,12 @@
       <c r="M303" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="304" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N303" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M303,1))),M303,NULL)</f>
+        <v>15-50人</v>
+      </c>
+    </row>
+    <row r="304" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>1536</v>
       </c>
@@ -24356,8 +25598,12 @@
       <c r="M304" t="s">
         <v>1036</v>
       </c>
-    </row>
-    <row r="305" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N304" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M304,1))),M304,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="305" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>925</v>
       </c>
@@ -24397,8 +25643,12 @@
       <c r="M305" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="306" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N305" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M305,1))),M305,NULL)</f>
+        <v>50-150人</v>
+      </c>
+    </row>
+    <row r="306" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>1545</v>
       </c>
@@ -24438,8 +25688,12 @@
       <c r="M306" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="307" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N306" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M306,1))),M306,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="307" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>1550</v>
       </c>
@@ -24479,8 +25733,12 @@
       <c r="M307" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="308" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N307" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M307,1))),M307,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="308" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>1553</v>
       </c>
@@ -24520,8 +25778,12 @@
       <c r="M308" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="309" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N308" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M308,1))),M308,NULL)</f>
+        <v>500-2000人</v>
+      </c>
+    </row>
+    <row r="309" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>26</v>
       </c>
@@ -24561,8 +25823,12 @@
       <c r="M309" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="310" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N309" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M309,1))),M309,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="310" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>1561</v>
       </c>
@@ -24602,8 +25868,12 @@
       <c r="M310" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="311" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N310" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M310,1))),M310,NULL)</f>
+        <v>50-150人</v>
+      </c>
+    </row>
+    <row r="311" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>26</v>
       </c>
@@ -24643,8 +25913,12 @@
       <c r="M311" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="312" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N311" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M311,1))),M311,NULL)</f>
+        <v>50-150人</v>
+      </c>
+    </row>
+    <row r="312" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>1271</v>
       </c>
@@ -24684,8 +25958,12 @@
       <c r="M312" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="313" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N312" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M312,1))),M312,NULL)</f>
+        <v>150-500人</v>
+      </c>
+    </row>
+    <row r="313" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>1575</v>
       </c>
@@ -24725,8 +26003,12 @@
       <c r="M313" t="s">
         <v>1418</v>
       </c>
-    </row>
-    <row r="314" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N313" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M313,1))),M313,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="314" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>1581</v>
       </c>
@@ -24766,8 +26048,12 @@
       <c r="M314" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="315" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N314" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M314,1))),M314,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="315" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>1587</v>
       </c>
@@ -24807,8 +26093,12 @@
       <c r="M315" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="316" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N315" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M315,1))),M315,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="316" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>1590</v>
       </c>
@@ -24848,8 +26138,12 @@
       <c r="M316" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="317" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N316" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M316,1))),M316,NULL)</f>
+        <v>150-500人</v>
+      </c>
+    </row>
+    <row r="317" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>1490</v>
       </c>
@@ -24889,8 +26183,12 @@
       <c r="M317" t="s">
         <v>1496</v>
       </c>
-    </row>
-    <row r="318" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N317" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M317,1))),M317,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="318" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>26</v>
       </c>
@@ -24930,8 +26228,12 @@
       <c r="M318" t="s">
         <v>1601</v>
       </c>
-    </row>
-    <row r="319" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N318" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M318,1))),M318,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="319" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>26</v>
       </c>
@@ -24971,8 +26273,12 @@
       <c r="M319" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="320" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N319" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M319,1))),M319,NULL)</f>
+        <v>50-150人</v>
+      </c>
+    </row>
+    <row r="320" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>26</v>
       </c>
@@ -25012,8 +26318,12 @@
       <c r="M320" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="321" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N320" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M320,1))),M320,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="321" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>1045</v>
       </c>
@@ -25053,8 +26363,12 @@
       <c r="M321" t="s">
         <v>1615</v>
       </c>
-    </row>
-    <row r="322" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N321" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M321,1))),M321,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="322" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>26</v>
       </c>
@@ -25094,8 +26408,12 @@
       <c r="M322" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="323" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N322" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M322,1))),M322,NULL)</f>
+        <v>15-50人</v>
+      </c>
+    </row>
+    <row r="323" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>26</v>
       </c>
@@ -25135,8 +26453,12 @@
       <c r="M323" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="324" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N323" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M323,1))),M323,NULL)</f>
+        <v>150-500人</v>
+      </c>
+    </row>
+    <row r="324" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>797</v>
       </c>
@@ -25176,8 +26498,12 @@
       <c r="M324" t="s">
         <v>1068</v>
       </c>
-    </row>
-    <row r="325" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N324" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M324,1))),M324,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="325" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>26</v>
       </c>
@@ -25217,8 +26543,12 @@
       <c r="M325" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="326" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N325" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M325,1))),M325,NULL)</f>
+        <v>150-500人</v>
+      </c>
+    </row>
+    <row r="326" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>26</v>
       </c>
@@ -25258,8 +26588,12 @@
       <c r="M326" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="327" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N326" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M326,1))),M326,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="327" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>959</v>
       </c>
@@ -25299,8 +26633,12 @@
       <c r="M327" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="328" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N327" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M327,1))),M327,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="328" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>26</v>
       </c>
@@ -25340,8 +26678,12 @@
       <c r="M328" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="329" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N328" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M328,1))),M328,NULL)</f>
+        <v>15-50人</v>
+      </c>
+    </row>
+    <row r="329" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>842</v>
       </c>
@@ -25381,8 +26723,12 @@
       <c r="M329" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="330" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N329" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M329,1))),M329,NULL)</f>
+        <v>15-50人</v>
+      </c>
+    </row>
+    <row r="330" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>1648</v>
       </c>
@@ -25422,8 +26768,12 @@
       <c r="M330" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="331" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N330" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M330,1))),M330,NULL)</f>
+        <v>150-500人</v>
+      </c>
+    </row>
+    <row r="331" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>588</v>
       </c>
@@ -25463,8 +26813,12 @@
       <c r="M331" t="s">
         <v>1068</v>
       </c>
-    </row>
-    <row r="332" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N331" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M331,1))),M331,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="332" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>1653</v>
       </c>
@@ -25504,8 +26858,12 @@
       <c r="M332" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="333" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N332" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M332,1))),M332,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="333" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>101</v>
       </c>
@@ -25545,8 +26903,12 @@
       <c r="M333" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="334" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N333" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M333,1))),M333,NULL)</f>
+        <v>50-150人</v>
+      </c>
+    </row>
+    <row r="334" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>26</v>
       </c>
@@ -25586,8 +26948,12 @@
       <c r="M334" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="335" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N334" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M334,1))),M334,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="335" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>1670</v>
       </c>
@@ -25627,8 +26993,12 @@
       <c r="M335" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="336" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N335" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M335,1))),M335,NULL)</f>
+        <v>500-2000人</v>
+      </c>
+    </row>
+    <row r="336" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>1675</v>
       </c>
@@ -25668,8 +27038,12 @@
       <c r="M336" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="337" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N336" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M336,1))),M336,NULL)</f>
+        <v>150-500人</v>
+      </c>
+    </row>
+    <row r="337" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>26</v>
       </c>
@@ -25709,8 +27083,12 @@
       <c r="M337" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="338" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N337" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M337,1))),M337,NULL)</f>
+        <v>15-50人</v>
+      </c>
+    </row>
+    <row r="338" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>1687</v>
       </c>
@@ -25750,8 +27128,12 @@
       <c r="M338" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="339" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N338" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M338,1))),M338,NULL)</f>
+        <v>500-2000人</v>
+      </c>
+    </row>
+    <row r="339" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>26</v>
       </c>
@@ -25791,8 +27173,12 @@
       <c r="M339" t="s">
         <v>1696</v>
       </c>
-    </row>
-    <row r="340" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N339" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M339,1))),M339,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="340" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>26</v>
       </c>
@@ -25832,8 +27218,12 @@
       <c r="M340" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="341" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N340" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M340,1))),M340,NULL)</f>
+        <v>15-50人</v>
+      </c>
+    </row>
+    <row r="341" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>1701</v>
       </c>
@@ -25873,8 +27263,12 @@
       <c r="M341" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="342" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N341" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M341,1))),M341,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="342" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>1705</v>
       </c>
@@ -25914,8 +27308,12 @@
       <c r="M342" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="343" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N342" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M342,1))),M342,NULL)</f>
+        <v>500-2000人</v>
+      </c>
+    </row>
+    <row r="343" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>1711</v>
       </c>
@@ -25955,8 +27353,12 @@
       <c r="M343" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="344" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N343" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M343,1))),M343,NULL)</f>
+        <v>150-500人</v>
+      </c>
+    </row>
+    <row r="344" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>1713</v>
       </c>
@@ -25996,8 +27398,12 @@
       <c r="M344" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="345" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N344" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M344,1))),M344,NULL)</f>
+        <v>15-50人</v>
+      </c>
+    </row>
+    <row r="345" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>1719</v>
       </c>
@@ -26037,8 +27443,12 @@
       <c r="M345" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="346" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N345" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M345,1))),M345,NULL)</f>
+        <v>150-500人</v>
+      </c>
+    </row>
+    <row r="346" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>72</v>
       </c>
@@ -26078,8 +27488,12 @@
       <c r="M346" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="347" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N346" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M346,1))),M346,NULL)</f>
+        <v>500-2000人</v>
+      </c>
+    </row>
+    <row r="347" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>797</v>
       </c>
@@ -26119,8 +27533,12 @@
       <c r="M347" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="348" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N347" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M347,1))),M347,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="348" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>26</v>
       </c>
@@ -26160,8 +27578,12 @@
       <c r="M348" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="349" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N348" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M348,1))),M348,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="349" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>1739</v>
       </c>
@@ -26201,8 +27623,12 @@
       <c r="M349" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="350" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N349" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M349,1))),M349,NULL)</f>
+        <v>150-500人</v>
+      </c>
+    </row>
+    <row r="350" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>925</v>
       </c>
@@ -26242,8 +27668,12 @@
       <c r="M350" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="351" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N350" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M350,1))),M350,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="351" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>1749</v>
       </c>
@@ -26283,8 +27713,12 @@
       <c r="M351" t="s">
         <v>1755</v>
       </c>
-    </row>
-    <row r="352" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N351" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M351,1))),M351,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="352" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>1756</v>
       </c>
@@ -26324,8 +27758,12 @@
       <c r="M352" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="353" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N352" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M352,1))),M352,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="353" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>1762</v>
       </c>
@@ -26365,8 +27803,12 @@
       <c r="M353" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="354" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N353" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M353,1))),M353,NULL)</f>
+        <v>500-2000人</v>
+      </c>
+    </row>
+    <row r="354" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>1768</v>
       </c>
@@ -26406,8 +27848,12 @@
       <c r="M354" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="355" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N354" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M354,1))),M354,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="355" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>1774</v>
       </c>
@@ -26447,8 +27893,12 @@
       <c r="M355" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="356" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N355" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M355,1))),M355,NULL)</f>
+        <v>15-50人</v>
+      </c>
+    </row>
+    <row r="356" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>1777</v>
       </c>
@@ -26488,8 +27938,12 @@
       <c r="M356" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="357" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N356" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M356,1))),M356,NULL)</f>
+        <v>500-2000人</v>
+      </c>
+    </row>
+    <row r="357" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>1783</v>
       </c>
@@ -26529,8 +27983,12 @@
       <c r="M357" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="358" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N357" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M357,1))),M357,NULL)</f>
+        <v>15-50人</v>
+      </c>
+    </row>
+    <row r="358" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>1789</v>
       </c>
@@ -26570,8 +28028,12 @@
       <c r="M358" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="359" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N358" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M358,1))),M358,NULL)</f>
+        <v>500-2000人</v>
+      </c>
+    </row>
+    <row r="359" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>1792</v>
       </c>
@@ -26611,8 +28073,12 @@
       <c r="M359" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="360" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N359" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M359,1))),M359,NULL)</f>
+        <v>500-2000人</v>
+      </c>
+    </row>
+    <row r="360" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>1796</v>
       </c>
@@ -26652,8 +28118,12 @@
       <c r="M360" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="361" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N360" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M360,1))),M360,NULL)</f>
+        <v>50-150人</v>
+      </c>
+    </row>
+    <row r="361" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>1675</v>
       </c>
@@ -26693,8 +28163,12 @@
       <c r="M361" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="362" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N361" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M361,1))),M361,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="362" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>1805</v>
       </c>
@@ -26734,8 +28208,12 @@
       <c r="M362" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="363" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N362" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M362,1))),M362,NULL)</f>
+        <v>500-2000人</v>
+      </c>
+    </row>
+    <row r="363" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>1808</v>
       </c>
@@ -26775,8 +28253,12 @@
       <c r="M363" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="364" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N363" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M363,1))),M363,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="364" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>1777</v>
       </c>
@@ -26816,8 +28298,12 @@
       <c r="M364" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="365" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N364" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M364,1))),M364,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="365" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>1805</v>
       </c>
@@ -26857,8 +28343,12 @@
       <c r="M365" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="366" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N365" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M365,1))),M365,NULL)</f>
+        <v>50-150人</v>
+      </c>
+    </row>
+    <row r="366" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>1816</v>
       </c>
@@ -26898,8 +28388,12 @@
       <c r="M366" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="367" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N366" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M366,1))),M366,NULL)</f>
+        <v>500-2000人</v>
+      </c>
+    </row>
+    <row r="367" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>1777</v>
       </c>
@@ -26939,8 +28433,12 @@
       <c r="M367" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="368" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N367" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M367,1))),M367,NULL)</f>
+        <v>500-2000人</v>
+      </c>
+    </row>
+    <row r="368" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>1826</v>
       </c>
@@ -26980,8 +28478,12 @@
       <c r="M368" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="369" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N368" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M368,1))),M368,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="369" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>1832</v>
       </c>
@@ -27021,8 +28523,12 @@
       <c r="M369" t="s">
         <v>1838</v>
       </c>
-    </row>
-    <row r="370" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N369" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M369,1))),M369,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="370" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>1805</v>
       </c>
@@ -27062,8 +28568,12 @@
       <c r="M370" t="s">
         <v>948</v>
       </c>
-    </row>
-    <row r="371" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N370" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M370,1))),M370,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="371" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>1842</v>
       </c>
@@ -27103,8 +28613,12 @@
       <c r="M371" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="372" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N371" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M371,1))),M371,NULL)</f>
+        <v>15-50人</v>
+      </c>
+    </row>
+    <row r="372" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>1849</v>
       </c>
@@ -27144,8 +28658,12 @@
       <c r="M372" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="373" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N372" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M372,1))),M372,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="373" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>1842</v>
       </c>
@@ -27185,8 +28703,12 @@
       <c r="M373" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="374" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N373" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M373,1))),M373,NULL)</f>
+        <v>50-150人</v>
+      </c>
+    </row>
+    <row r="374" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>1858</v>
       </c>
@@ -27226,8 +28748,12 @@
       <c r="M374" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="375" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N374" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M374,1))),M374,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="375" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>1864</v>
       </c>
@@ -27267,8 +28793,12 @@
       <c r="M375" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="376" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N375" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M375,1))),M375,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="376" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>1869</v>
       </c>
@@ -27308,8 +28838,12 @@
       <c r="M376" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="377" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N376" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M376,1))),M376,NULL)</f>
+        <v>500-2000人</v>
+      </c>
+    </row>
+    <row r="377" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>1792</v>
       </c>
@@ -27349,8 +28883,12 @@
       <c r="M377" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="378" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N377" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M377,1))),M377,NULL)</f>
+        <v>500-2000人</v>
+      </c>
+    </row>
+    <row r="378" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>1876</v>
       </c>
@@ -27390,8 +28928,12 @@
       <c r="M378" t="s">
         <v>1882</v>
       </c>
-    </row>
-    <row r="379" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N378" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M378,1))),M378,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="379" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>1805</v>
       </c>
@@ -27431,8 +28973,12 @@
       <c r="M379" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="380" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N379" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M379,1))),M379,NULL)</f>
+        <v>500-2000人</v>
+      </c>
+    </row>
+    <row r="380" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>1888</v>
       </c>
@@ -27472,8 +29018,12 @@
       <c r="M380" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="381" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N380" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M380,1))),M380,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="381" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>1894</v>
       </c>
@@ -27513,8 +29063,12 @@
       <c r="M381" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="382" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N381" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M381,1))),M381,NULL)</f>
+        <v>150-500人</v>
+      </c>
+    </row>
+    <row r="382" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>1899</v>
       </c>
@@ -27554,8 +29108,12 @@
       <c r="M382" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="383" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N382" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M382,1))),M382,NULL)</f>
+        <v>50-150人</v>
+      </c>
+    </row>
+    <row r="383" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>1903</v>
       </c>
@@ -27595,8 +29153,12 @@
       <c r="M383" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="384" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N383" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M383,1))),M383,NULL)</f>
+        <v>500-2000人</v>
+      </c>
+    </row>
+    <row r="384" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>1910</v>
       </c>
@@ -27636,8 +29198,12 @@
       <c r="M384" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="385" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N384" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M384,1))),M384,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="385" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>1914</v>
       </c>
@@ -27677,8 +29243,12 @@
       <c r="M385" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="386" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N385" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M385,1))),M385,NULL)</f>
+        <v>150-500人</v>
+      </c>
+    </row>
+    <row r="386" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>1919</v>
       </c>
@@ -27718,8 +29288,12 @@
       <c r="M386" t="s">
         <v>1923</v>
       </c>
-    </row>
-    <row r="387" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N386" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M386,1))),M386,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="387" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>1899</v>
       </c>
@@ -27759,8 +29333,12 @@
       <c r="M387" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="388" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N387" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M387,1))),M387,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="388" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>1926</v>
       </c>
@@ -27800,8 +29378,12 @@
       <c r="M388" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="389" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N388" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M388,1))),M388,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="389" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>1929</v>
       </c>
@@ -27841,8 +29423,12 @@
       <c r="M389" t="s">
         <v>1935</v>
       </c>
-    </row>
-    <row r="390" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N389" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M389,1))),M389,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="390" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>1936</v>
       </c>
@@ -27882,8 +29468,12 @@
       <c r="M390" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="391" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N390" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M390,1))),M390,NULL)</f>
+        <v>150-500人</v>
+      </c>
+    </row>
+    <row r="391" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>1940</v>
       </c>
@@ -27923,8 +29513,12 @@
       <c r="M391" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="392" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N391" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M391,1))),M391,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="392" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>1943</v>
       </c>
@@ -27964,8 +29558,12 @@
       <c r="M392" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="393" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N392" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M392,1))),M392,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="393" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>1950</v>
       </c>
@@ -28005,8 +29603,12 @@
       <c r="M393" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="394" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N393" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M393,1))),M393,NULL)</f>
+        <v>150-500人</v>
+      </c>
+    </row>
+    <row r="394" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>1777</v>
       </c>
@@ -28046,8 +29648,12 @@
       <c r="M394" t="s">
         <v>1960</v>
       </c>
-    </row>
-    <row r="395" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N394" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M394,1))),M394,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="395" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>1961</v>
       </c>
@@ -28087,8 +29693,12 @@
       <c r="M395" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="396" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N395" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M395,1))),M395,NULL)</f>
+        <v>50-150人</v>
+      </c>
+    </row>
+    <row r="396" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>1762</v>
       </c>
@@ -28128,8 +29738,12 @@
       <c r="M396" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="397" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N396" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M396,1))),M396,NULL)</f>
+        <v>500-2000人</v>
+      </c>
+    </row>
+    <row r="397" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>1966</v>
       </c>
@@ -28169,8 +29783,12 @@
       <c r="M397" t="s">
         <v>1972</v>
       </c>
-    </row>
-    <row r="398" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N397" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M397,1))),M397,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="398" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>1973</v>
       </c>
@@ -28210,8 +29828,12 @@
       <c r="M398" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="399" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N398" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M398,1))),M398,NULL)</f>
+        <v>50-150人</v>
+      </c>
+    </row>
+    <row r="399" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>1978</v>
       </c>
@@ -28251,8 +29873,12 @@
       <c r="M399" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="400" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N399" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M399,1))),M399,NULL)</f>
+        <v>500-2000人</v>
+      </c>
+    </row>
+    <row r="400" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>1982</v>
       </c>
@@ -28292,8 +29918,12 @@
       <c r="M400" t="s">
         <v>1357</v>
       </c>
-    </row>
-    <row r="401" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N400" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M400,1))),M400,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="401" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>1986</v>
       </c>
@@ -28333,8 +29963,12 @@
       <c r="M401" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="402" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N401" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M401,1))),M401,NULL)</f>
+        <v>500-2000人</v>
+      </c>
+    </row>
+    <row r="402" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>1992</v>
       </c>
@@ -28374,8 +30008,12 @@
       <c r="M402" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="403" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N402" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M402,1))),M402,NULL)</f>
+        <v>150-500人</v>
+      </c>
+    </row>
+    <row r="403" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>1998</v>
       </c>
@@ -28415,8 +30053,12 @@
       <c r="M403" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="404" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N403" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M403,1))),M403,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="404" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>2004</v>
       </c>
@@ -28456,8 +30098,12 @@
       <c r="M404" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="405" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N404" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M404,1))),M404,NULL)</f>
+        <v>150-500人</v>
+      </c>
+    </row>
+    <row r="405" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>2008</v>
       </c>
@@ -28497,8 +30143,12 @@
       <c r="M405" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="406" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N405" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M405,1))),M405,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="406" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>2011</v>
       </c>
@@ -28538,8 +30188,12 @@
       <c r="M406" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="407" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N406" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M406,1))),M406,NULL)</f>
+        <v>150-500人</v>
+      </c>
+    </row>
+    <row r="407" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>2016</v>
       </c>
@@ -28579,8 +30233,12 @@
       <c r="M407" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="408" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N407" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M407,1))),M407,NULL)</f>
+        <v>50-150人</v>
+      </c>
+    </row>
+    <row r="408" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>2020</v>
       </c>
@@ -28620,8 +30278,12 @@
       <c r="M408" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="409" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N408" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M408,1))),M408,NULL)</f>
+        <v>500-2000人</v>
+      </c>
+    </row>
+    <row r="409" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>2022</v>
       </c>
@@ -28661,8 +30323,12 @@
       <c r="M409" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="410" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N409" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M409,1))),M409,NULL)</f>
+        <v>500-2000人</v>
+      </c>
+    </row>
+    <row r="410" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>2028</v>
       </c>
@@ -28702,8 +30368,12 @@
       <c r="M410" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="411" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N410" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M410,1))),M410,NULL)</f>
+        <v>150-500人</v>
+      </c>
+    </row>
+    <row r="411" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>2031</v>
       </c>
@@ -28743,8 +30413,12 @@
       <c r="M411" t="s">
         <v>825</v>
       </c>
-    </row>
-    <row r="412" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N411" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M411,1))),M411,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="412" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>2036</v>
       </c>
@@ -28784,8 +30458,12 @@
       <c r="M412" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="413" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N412" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M412,1))),M412,NULL)</f>
+        <v>15-50人</v>
+      </c>
+    </row>
+    <row r="413" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>2041</v>
       </c>
@@ -28825,8 +30503,12 @@
       <c r="M413" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="414" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N413" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M413,1))),M413,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="414" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>2046</v>
       </c>
@@ -28866,8 +30548,12 @@
       <c r="M414" t="s">
         <v>711</v>
       </c>
-    </row>
-    <row r="415" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N414" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M414,1))),M414,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="415" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>26</v>
       </c>
@@ -28907,8 +30593,12 @@
       <c r="M415" t="s">
         <v>711</v>
       </c>
-    </row>
-    <row r="416" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N415" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M415,1))),M415,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="416" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>2051</v>
       </c>
@@ -28948,8 +30638,12 @@
       <c r="M416" t="s">
         <v>711</v>
       </c>
-    </row>
-    <row r="417" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N416" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M416,1))),M416,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="417" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>2055</v>
       </c>
@@ -28989,8 +30683,12 @@
       <c r="M417" t="s">
         <v>711</v>
       </c>
-    </row>
-    <row r="418" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N417" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M417,1))),M417,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="418" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>2059</v>
       </c>
@@ -29030,8 +30728,12 @@
       <c r="M418" t="s">
         <v>711</v>
       </c>
-    </row>
-    <row r="419" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N418" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M418,1))),M418,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="419" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>2062</v>
       </c>
@@ -29071,8 +30773,12 @@
       <c r="M419" t="s">
         <v>711</v>
       </c>
-    </row>
-    <row r="420" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N419" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M419,1))),M419,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="420" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>55</v>
       </c>
@@ -29112,8 +30818,12 @@
       <c r="M420" t="s">
         <v>711</v>
       </c>
-    </row>
-    <row r="421" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N420" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M420,1))),M420,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="421" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>959</v>
       </c>
@@ -29153,8 +30863,12 @@
       <c r="M421" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="422" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N421" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M421,1))),M421,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="422" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>959</v>
       </c>
@@ -29194,8 +30908,12 @@
       <c r="M422" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="423" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N422" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M422,1))),M422,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="423" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>588</v>
       </c>
@@ -29235,8 +30953,12 @@
       <c r="M423" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="424" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N423" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M423,1))),M423,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="424" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>2074</v>
       </c>
@@ -29276,8 +30998,12 @@
       <c r="M424" t="s">
         <v>711</v>
       </c>
-    </row>
-    <row r="425" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N424" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M424,1))),M424,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="425" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>797</v>
       </c>
@@ -29317,8 +31043,12 @@
       <c r="M425" t="s">
         <v>711</v>
       </c>
-    </row>
-    <row r="426" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N425" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M425,1))),M425,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="426" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>588</v>
       </c>
@@ -29358,8 +31088,12 @@
       <c r="M426" t="s">
         <v>711</v>
       </c>
-    </row>
-    <row r="427" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N426" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M426,1))),M426,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="427" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>2081</v>
       </c>
@@ -29399,8 +31133,12 @@
       <c r="M427" t="s">
         <v>711</v>
       </c>
-    </row>
-    <row r="428" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N427" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M427,1))),M427,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="428" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>26</v>
       </c>
@@ -29440,8 +31178,12 @@
       <c r="M428" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="429" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N428" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M428,1))),M428,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="429" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>925</v>
       </c>
@@ -29481,8 +31223,12 @@
       <c r="M429" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="430" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N429" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M429,1))),M429,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="430" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>2085</v>
       </c>
@@ -29522,8 +31268,12 @@
       <c r="M430" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="431" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N430" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M430,1))),M430,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="431" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>925</v>
       </c>
@@ -29563,8 +31313,12 @@
       <c r="M431" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="432" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N431" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M431,1))),M431,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="432" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>1805</v>
       </c>
@@ -29604,8 +31358,12 @@
       <c r="M432" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="433" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N432" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M432,1))),M432,NULL)</f>
+        <v>150-500人</v>
+      </c>
+    </row>
+    <row r="433" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>1805</v>
       </c>
@@ -29645,8 +31403,12 @@
       <c r="M433" t="s">
         <v>711</v>
       </c>
-    </row>
-    <row r="434" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N433" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M433,1))),M433,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="434" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>2098</v>
       </c>
@@ -29686,8 +31448,12 @@
       <c r="M434" t="s">
         <v>711</v>
       </c>
-    </row>
-    <row r="435" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N434" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M434,1))),M434,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="435" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>2102</v>
       </c>
@@ -29727,9 +31493,14 @@
       <c r="M435" t="s">
         <v>711</v>
       </c>
+      <c r="N435" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M435,1))),M435,NULL)</f>
+        <v>#NAME?</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>